--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>51.97372366666666</v>
+        <v>0.1275283333333333</v>
       </c>
       <c r="H2">
-        <v>155.921171</v>
+        <v>0.382585</v>
       </c>
       <c r="I2">
-        <v>0.9609723860600281</v>
+        <v>0.002392974791192566</v>
       </c>
       <c r="J2">
-        <v>0.9704070819667431</v>
+        <v>0.002404371200071794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.63918933333334</v>
+        <v>49.248769</v>
       </c>
       <c r="N2">
-        <v>175.917568</v>
+        <v>147.746307</v>
       </c>
       <c r="O2">
-        <v>0.9153206706690767</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P2">
-        <v>0.923685878527411</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q2">
-        <v>3047.697022448015</v>
+        <v>6.280613429288334</v>
       </c>
       <c r="R2">
-        <v>27429.27320203213</v>
+        <v>56.525520863595</v>
       </c>
       <c r="S2">
-        <v>0.8795978889029279</v>
+        <v>0.002158529118703054</v>
       </c>
       <c r="T2">
-        <v>0.8963513180356725</v>
+        <v>0.002191649094534786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>51.97372366666666</v>
+        <v>0.1275283333333333</v>
       </c>
       <c r="H3">
-        <v>155.921171</v>
+        <v>0.382585</v>
       </c>
       <c r="I3">
-        <v>0.9609723860600281</v>
+        <v>0.002392974791192566</v>
       </c>
       <c r="J3">
-        <v>0.9704070819667431</v>
+        <v>0.002404371200071794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05628240070608662</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P3">
-        <v>0.0567967712384688</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q3">
-        <v>187.4006679241503</v>
+        <v>0.4598264884616667</v>
       </c>
       <c r="R3">
-        <v>1686.606011317353</v>
+        <v>4.138438396155</v>
       </c>
       <c r="S3">
-        <v>0.05408583289971467</v>
+        <v>0.0001580337455999021</v>
       </c>
       <c r="T3">
-        <v>0.05511598904265515</v>
+        <v>0.0001604585791541568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>51.97372366666666</v>
+        <v>0.1275283333333333</v>
       </c>
       <c r="H4">
-        <v>155.921171</v>
+        <v>0.382585</v>
       </c>
       <c r="I4">
-        <v>0.9609723860600281</v>
+        <v>0.002392974791192566</v>
       </c>
       <c r="J4">
-        <v>0.9704070819667431</v>
+        <v>0.002404371200071794</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.045876</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N4">
-        <v>0.137628</v>
+        <v>0.109333</v>
       </c>
       <c r="O4">
-        <v>0.0007160953547450342</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P4">
-        <v>0.0007226398223625426</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q4">
-        <v>2.384346546932</v>
+        <v>0.004647685089444444</v>
       </c>
       <c r="R4">
-        <v>21.459118922388</v>
+        <v>0.041829165805</v>
       </c>
       <c r="S4">
-        <v>0.0006881478616958378</v>
+        <v>1.597322254120105E-06</v>
       </c>
       <c r="T4">
-        <v>0.0007012548013318005</v>
+        <v>1.621831200510289E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>51.97372366666666</v>
+        <v>0.1275283333333333</v>
       </c>
       <c r="H5">
-        <v>155.921171</v>
+        <v>0.382585</v>
       </c>
       <c r="I5">
-        <v>0.9609723860600281</v>
+        <v>0.002392974791192566</v>
       </c>
       <c r="J5">
-        <v>0.9704070819667431</v>
+        <v>0.002404371200071794</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,42 +744,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7405575</v>
+        <v>1.706962</v>
       </c>
       <c r="N5">
-        <v>3.481115</v>
+        <v>3.413924</v>
       </c>
       <c r="O5">
-        <v>0.02716900210167909</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P5">
-        <v>0.01827820156671304</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q5">
-        <v>90.46325453094416</v>
+        <v>0.2176860189233333</v>
       </c>
       <c r="R5">
-        <v>542.7795271856648</v>
+        <v>1.30611611354</v>
       </c>
       <c r="S5">
-        <v>0.02610866077652047</v>
+        <v>7.481460463549051E-05</v>
       </c>
       <c r="T5">
-        <v>0.01773729624595395</v>
+        <v>5.064169518234101E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.97372366666666</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H6">
         <v>155.921171</v>
       </c>
       <c r="I6">
-        <v>0.9609723860600281</v>
+        <v>0.9752484588162774</v>
       </c>
       <c r="J6">
-        <v>0.9704070819667431</v>
+        <v>0.9798930251679222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03279</v>
+        <v>49.248769</v>
       </c>
       <c r="N6">
-        <v>0.09837</v>
+        <v>147.746307</v>
       </c>
       <c r="O6">
-        <v>0.0005118311684124525</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P6">
-        <v>0.0005165088450446371</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q6">
-        <v>1.70421839903</v>
+        <v>2559.6419109295</v>
       </c>
       <c r="R6">
-        <v>15.33796559127</v>
+        <v>23036.7771983655</v>
       </c>
       <c r="S6">
-        <v>0.0004918556191692066</v>
+        <v>0.87970094966028</v>
       </c>
       <c r="T6">
-        <v>0.000501223841129779</v>
+        <v>0.8931988793103587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.255776</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H7">
-        <v>0.767328</v>
+        <v>155.921171</v>
       </c>
       <c r="I7">
-        <v>0.004729191131143244</v>
+        <v>0.9752484588162774</v>
       </c>
       <c r="J7">
-        <v>0.004775621685084556</v>
+        <v>0.9798930251679222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.63918933333334</v>
+        <v>3.605681</v>
       </c>
       <c r="N7">
-        <v>175.917568</v>
+        <v>10.817043</v>
       </c>
       <c r="O7">
-        <v>0.9153206706690767</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P7">
-        <v>0.923685878527411</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q7">
-        <v>14.99849729092267</v>
+        <v>187.4006679241504</v>
       </c>
       <c r="R7">
-        <v>134.986475618304</v>
+        <v>1686.606011317353</v>
       </c>
       <c r="S7">
-        <v>0.004328726397880284</v>
+        <v>0.06440609713254006</v>
       </c>
       <c r="T7">
-        <v>0.004411174311701883</v>
+        <v>0.06539432951817849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.255776</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H8">
-        <v>0.767328</v>
+        <v>155.921171</v>
       </c>
       <c r="I8">
-        <v>0.004729191131143244</v>
+        <v>0.9752484588162774</v>
       </c>
       <c r="J8">
-        <v>0.004775621685084556</v>
+        <v>0.9798930251679222</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.605681</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N8">
-        <v>10.817043</v>
+        <v>0.109333</v>
       </c>
       <c r="O8">
-        <v>0.05628240070608662</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P8">
-        <v>0.0567967712384688</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q8">
-        <v>0.922246663456</v>
+        <v>1.894147709882556</v>
       </c>
       <c r="R8">
-        <v>8.300219971103999</v>
+        <v>17.047329388943</v>
       </c>
       <c r="S8">
-        <v>0.0002661702302586751</v>
+        <v>0.0006509830660552983</v>
       </c>
       <c r="T8">
-        <v>0.0002712398923692184</v>
+        <v>0.000660971600945934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.255776</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H9">
-        <v>0.767328</v>
+        <v>155.921171</v>
       </c>
       <c r="I9">
-        <v>0.004729191131143244</v>
+        <v>0.9752484588162774</v>
       </c>
       <c r="J9">
-        <v>0.004775621685084556</v>
+        <v>0.9798930251679222</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.045876</v>
+        <v>1.706962</v>
       </c>
       <c r="N9">
-        <v>0.137628</v>
+        <v>3.413924</v>
       </c>
       <c r="O9">
-        <v>0.0007160953547450342</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P9">
-        <v>0.0007226398223625426</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q9">
-        <v>0.011733979776</v>
+        <v>88.71717129750067</v>
       </c>
       <c r="R9">
-        <v>0.105605817984</v>
+        <v>532.303027785004</v>
       </c>
       <c r="S9">
-        <v>3.386551800713091E-06</v>
+        <v>0.03049042895740217</v>
       </c>
       <c r="T9">
-        <v>3.45105440618021E-06</v>
+        <v>0.02063884473843896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.255776</v>
+        <v>0.166927</v>
       </c>
       <c r="H10">
-        <v>0.767328</v>
+        <v>0.500781</v>
       </c>
       <c r="I10">
-        <v>0.004729191131143244</v>
+        <v>0.003132261612212201</v>
       </c>
       <c r="J10">
-        <v>0.004775621685084556</v>
+        <v>0.00314717883331326</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7405575</v>
+        <v>49.248769</v>
       </c>
       <c r="N10">
-        <v>3.481115</v>
+        <v>147.746307</v>
       </c>
       <c r="O10">
-        <v>0.02716900210167909</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P10">
-        <v>0.01827820156671304</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q10">
-        <v>0.44519283512</v>
+        <v>8.220949262863002</v>
       </c>
       <c r="R10">
-        <v>2.67115701072</v>
+        <v>73.988543365767</v>
       </c>
       <c r="S10">
-        <v>0.0001284874037812729</v>
+        <v>0.002825386177171698</v>
       </c>
       <c r="T10">
-        <v>8.728977576634129E-05</v>
+        <v>0.00286873825479364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.255776</v>
+        <v>0.166927</v>
       </c>
       <c r="H11">
-        <v>0.767328</v>
+        <v>0.500781</v>
       </c>
       <c r="I11">
-        <v>0.004729191131143244</v>
+        <v>0.003132261612212201</v>
       </c>
       <c r="J11">
-        <v>0.004775621685084556</v>
+        <v>0.00314717883331326</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03279</v>
+        <v>3.605681</v>
       </c>
       <c r="N11">
-        <v>0.09837</v>
+        <v>10.817043</v>
       </c>
       <c r="O11">
-        <v>0.0005118311684124525</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P11">
-        <v>0.0005165088450446371</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q11">
-        <v>0.00838689504</v>
+        <v>0.601885512287</v>
       </c>
       <c r="R11">
-        <v>0.07548205535999999</v>
+        <v>5.416969610583</v>
       </c>
       <c r="S11">
-        <v>2.420547422298855E-06</v>
+        <v>0.0002068567694898247</v>
       </c>
       <c r="T11">
-        <v>2.466650840933147E-06</v>
+        <v>0.0002100307323271895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.5774955</v>
+        <v>0.166927</v>
       </c>
       <c r="H12">
-        <v>3.154991</v>
+        <v>0.500781</v>
       </c>
       <c r="I12">
-        <v>0.02916723120237387</v>
+        <v>0.003132261612212201</v>
       </c>
       <c r="J12">
-        <v>0.01963572740190193</v>
+        <v>0.00314717883331326</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>58.63918933333334</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N12">
-        <v>175.917568</v>
+        <v>0.109333</v>
       </c>
       <c r="O12">
-        <v>0.9153206706690767</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P12">
-        <v>0.923685878527411</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q12">
-        <v>92.50305729698134</v>
+        <v>0.006083543230333334</v>
       </c>
       <c r="R12">
-        <v>555.018343781888</v>
+        <v>0.054751889073</v>
       </c>
       <c r="S12">
-        <v>0.02669736962571687</v>
+        <v>2.090799784990317E-06</v>
       </c>
       <c r="T12">
-        <v>0.01813724411575054</v>
+        <v>2.122880537456364E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.166927</v>
+      </c>
+      <c r="H13">
+        <v>0.500781</v>
+      </c>
+      <c r="I13">
+        <v>0.003132261612212201</v>
+      </c>
+      <c r="J13">
+        <v>0.00314717883331326</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.5774955</v>
-      </c>
-      <c r="H13">
-        <v>3.154991</v>
-      </c>
-      <c r="I13">
-        <v>0.02916723120237387</v>
-      </c>
-      <c r="J13">
-        <v>0.01963572740190193</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.605681</v>
+        <v>1.706962</v>
       </c>
       <c r="N13">
-        <v>10.817043</v>
+        <v>3.413924</v>
       </c>
       <c r="O13">
-        <v>0.05628240070608662</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P13">
-        <v>0.0567967712384688</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q13">
-        <v>5.6879455519355</v>
+        <v>0.284938045774</v>
       </c>
       <c r="R13">
-        <v>34.127673311613</v>
+        <v>1.709628274644</v>
       </c>
       <c r="S13">
-        <v>0.001641601794019079</v>
+        <v>9.792786576568757E-05</v>
       </c>
       <c r="T13">
-        <v>0.001115245917346758</v>
+        <v>6.628696565497317E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5774955</v>
+        <v>0.757803</v>
       </c>
       <c r="H14">
-        <v>3.154991</v>
+        <v>1.515606</v>
       </c>
       <c r="I14">
-        <v>0.02916723120237387</v>
+        <v>0.01421961244447718</v>
       </c>
       <c r="J14">
-        <v>0.01963572740190193</v>
+        <v>0.009524888370051131</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.045876</v>
+        <v>49.248769</v>
       </c>
       <c r="N14">
-        <v>0.137628</v>
+        <v>147.746307</v>
       </c>
       <c r="O14">
-        <v>0.0007160953547450342</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P14">
-        <v>0.0007226398223625426</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q14">
-        <v>0.072369183558</v>
+        <v>37.320864894507</v>
       </c>
       <c r="R14">
-        <v>0.434215101348</v>
+        <v>223.925189367042</v>
       </c>
       <c r="S14">
-        <v>2.088651877479434E-05</v>
+        <v>0.01282648176280197</v>
       </c>
       <c r="T14">
-        <v>1.418955856166972E-05</v>
+        <v>0.00868219223851298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5774955</v>
+        <v>0.757803</v>
       </c>
       <c r="H15">
-        <v>3.154991</v>
+        <v>1.515606</v>
       </c>
       <c r="I15">
-        <v>0.02916723120237387</v>
+        <v>0.01421961244447718</v>
       </c>
       <c r="J15">
-        <v>0.01963572740190193</v>
+        <v>0.009524888370051131</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7405575</v>
+        <v>3.605681</v>
       </c>
       <c r="N15">
-        <v>3.481115</v>
+        <v>10.817043</v>
       </c>
       <c r="O15">
-        <v>0.02716900210167909</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P15">
-        <v>0.01827820156671304</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q15">
-        <v>2.745721623741249</v>
+        <v>2.732395878843</v>
       </c>
       <c r="R15">
-        <v>10.982886494965</v>
+        <v>16.394375273058</v>
       </c>
       <c r="S15">
-        <v>0.0007924445658374553</v>
+        <v>0.0009390732505208722</v>
       </c>
       <c r="T15">
-        <v>0.0003589057833609941</v>
+        <v>0.0006356547834272512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5774955</v>
+        <v>0.757803</v>
       </c>
       <c r="H16">
-        <v>3.154991</v>
+        <v>1.515606</v>
       </c>
       <c r="I16">
-        <v>0.02916723120237387</v>
+        <v>0.01421961244447718</v>
       </c>
       <c r="J16">
-        <v>0.01963572740190193</v>
+        <v>0.009524888370051131</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03279</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N16">
-        <v>0.09837</v>
+        <v>0.109333</v>
       </c>
       <c r="O16">
-        <v>0.0005118311684124525</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P16">
-        <v>0.0005165088450446371</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q16">
-        <v>0.051726077445</v>
+        <v>0.027617625133</v>
       </c>
       <c r="R16">
-        <v>0.31035646467</v>
+        <v>0.165705750798</v>
       </c>
       <c r="S16">
-        <v>1.492869802566716E-05</v>
+        <v>9.491660123676917E-06</v>
       </c>
       <c r="T16">
-        <v>1.01420268819677E-05</v>
+        <v>6.424865320074225E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,72 +1455,72 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.277518</v>
+        <v>0.757803</v>
       </c>
       <c r="H17">
-        <v>0.8325540000000001</v>
+        <v>1.515606</v>
       </c>
       <c r="I17">
-        <v>0.00513119160645491</v>
+        <v>0.01421961244447718</v>
       </c>
       <c r="J17">
-        <v>0.005181568946270549</v>
+        <v>0.009524888370051131</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>58.63918933333334</v>
+        <v>1.706962</v>
       </c>
       <c r="N17">
-        <v>175.917568</v>
+        <v>3.413924</v>
       </c>
       <c r="O17">
-        <v>0.9153206706690767</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P17">
-        <v>0.923685878527411</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q17">
-        <v>16.273430545408</v>
+        <v>1.293540924486</v>
       </c>
       <c r="R17">
-        <v>146.460874908672</v>
+        <v>5.174163697944</v>
       </c>
       <c r="S17">
-        <v>0.004696685742551845</v>
+        <v>0.0004445657710306621</v>
       </c>
       <c r="T17">
-        <v>0.004786142064286263</v>
+        <v>0.0002006164827908232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.277518</v>
+        <v>0.2668206666666667</v>
       </c>
       <c r="H18">
-        <v>0.8325540000000001</v>
+        <v>0.800462</v>
       </c>
       <c r="I18">
-        <v>0.00513119160645491</v>
+        <v>0.005006692335840621</v>
       </c>
       <c r="J18">
-        <v>0.005181568946270549</v>
+        <v>0.005030536428641658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,39 +1550,39 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.605681</v>
+        <v>49.248769</v>
       </c>
       <c r="N18">
-        <v>10.817043</v>
+        <v>147.746307</v>
       </c>
       <c r="O18">
-        <v>0.05628240070608662</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P18">
-        <v>0.0567967712384688</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q18">
-        <v>1.000641379758</v>
+        <v>13.14058937709267</v>
       </c>
       <c r="R18">
-        <v>9.005772417822001</v>
+        <v>118.265304393834</v>
       </c>
       <c r="S18">
-        <v>0.0002887957820942036</v>
+        <v>0.004516174276083181</v>
       </c>
       <c r="T18">
-        <v>0.0002942963860976822</v>
+        <v>0.004585469418585423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1594,57 +1594,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.277518</v>
+        <v>0.2668206666666667</v>
       </c>
       <c r="H19">
-        <v>0.8325540000000001</v>
+        <v>0.800462</v>
       </c>
       <c r="I19">
-        <v>0.00513119160645491</v>
+        <v>0.005006692335840621</v>
       </c>
       <c r="J19">
-        <v>0.005181568946270549</v>
+        <v>0.005030536428641658</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.045876</v>
+        <v>3.605681</v>
       </c>
       <c r="N19">
-        <v>0.137628</v>
+        <v>10.817043</v>
       </c>
       <c r="O19">
-        <v>0.0007160953547450342</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P19">
-        <v>0.0007226398223625426</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q19">
-        <v>0.012731415768</v>
+        <v>0.9620702082073334</v>
       </c>
       <c r="R19">
-        <v>0.114582741912</v>
+        <v>8.658631873866</v>
       </c>
       <c r="S19">
-        <v>3.674422473689071E-06</v>
+        <v>0.0003306454985699618</v>
       </c>
       <c r="T19">
-        <v>3.744408062892217E-06</v>
+        <v>0.000335718847280721</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -1656,57 +1656,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.277518</v>
+        <v>0.2668206666666667</v>
       </c>
       <c r="H20">
-        <v>0.8325540000000001</v>
+        <v>0.800462</v>
       </c>
       <c r="I20">
-        <v>0.00513119160645491</v>
+        <v>0.005006692335840621</v>
       </c>
       <c r="J20">
-        <v>0.005181568946270549</v>
+        <v>0.005030536428641658</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>1.7405575</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N20">
-        <v>3.481115</v>
+        <v>0.109333</v>
       </c>
       <c r="O20">
-        <v>0.02716900210167909</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P20">
-        <v>0.01827820156671304</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q20">
-        <v>0.483036036285</v>
+        <v>0.009724101316222223</v>
       </c>
       <c r="R20">
-        <v>2.89821621771</v>
+        <v>0.087516911846</v>
       </c>
       <c r="S20">
-        <v>0.0001394093555398915</v>
+        <v>3.341991364474528E-06</v>
       </c>
       <c r="T20">
-        <v>9.470976163175398E-05</v>
+        <v>3.393270113629304E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.277518</v>
+        <v>0.2668206666666667</v>
       </c>
       <c r="H21">
-        <v>0.8325540000000001</v>
+        <v>0.800462</v>
       </c>
       <c r="I21">
-        <v>0.00513119160645491</v>
+        <v>0.005006692335840621</v>
       </c>
       <c r="J21">
-        <v>0.005181568946270549</v>
+        <v>0.005030536428641658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03279</v>
+        <v>1.706962</v>
       </c>
       <c r="N21">
-        <v>0.09837</v>
+        <v>3.413924</v>
       </c>
       <c r="O21">
-        <v>0.0005118311684124525</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P21">
-        <v>0.0005165088450446371</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q21">
-        <v>0.009099815220000002</v>
+        <v>0.4554527388146666</v>
       </c>
       <c r="R21">
-        <v>0.08189833698000001</v>
+        <v>2.732716432888</v>
       </c>
       <c r="S21">
-        <v>2.626303795279986E-06</v>
+        <v>0.000156530569823004</v>
       </c>
       <c r="T21">
-        <v>2.676326191957358E-06</v>
+        <v>0.0001059548926618844</v>
       </c>
     </row>
   </sheetData>
